--- a/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2007 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2012 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido algún psicofármaco en las dos últimas semanas en 2023 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>90131</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73780</v>
+        <v>74012</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108394</v>
+        <v>111378</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08735950143635984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07151122800730207</v>
+        <v>0.07173593847533612</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1050615270993999</v>
+        <v>0.1079532449140697</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>224</v>
@@ -765,19 +765,19 @@
         <v>228483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>201925</v>
+        <v>203657</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256000</v>
+        <v>254770</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1737362392515513</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1535420643452915</v>
+        <v>0.1548593055871782</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1946597011728076</v>
+        <v>0.1937249917392676</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>317</v>
@@ -786,19 +786,19 @@
         <v>318613</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>286522</v>
+        <v>285107</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>353821</v>
+        <v>351744</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1357630390380832</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1220888682087671</v>
+        <v>0.121485915515052</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1507650463868375</v>
+        <v>0.1498799533255614</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>941592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>923329</v>
+        <v>920345</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>957943</v>
+        <v>957711</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9126404985636402</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8949384729006001</v>
+        <v>0.8920467550859305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9284887719926981</v>
+        <v>0.9282640615246639</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1067</v>
@@ -836,19 +836,19 @@
         <v>1086630</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1059113</v>
+        <v>1060343</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1113188</v>
+        <v>1111456</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8262637607484488</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8053402988271924</v>
+        <v>0.8062750082607325</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8464579356547083</v>
+        <v>0.8451406944128219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2012</v>
@@ -857,19 +857,19 @@
         <v>2028222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1993014</v>
+        <v>1995091</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2060313</v>
+        <v>2061728</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8642369609619168</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8492349536131627</v>
+        <v>0.8501200466744386</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.877911131791233</v>
+        <v>0.8785140844849479</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>49823</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36187</v>
+        <v>37617</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64022</v>
+        <v>66568</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02942190515853403</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0213692979330843</v>
+        <v>0.02221343583408645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03780657344724478</v>
+        <v>0.03931023967154616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -982,19 +982,19 @@
         <v>119061</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100208</v>
+        <v>99500</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>142538</v>
+        <v>139845</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07499067341666084</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06311601946688422</v>
+        <v>0.0626706223311763</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08977816023630095</v>
+        <v>0.0880817709541253</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>164</v>
@@ -1003,19 +1003,19 @@
         <v>168884</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>142887</v>
+        <v>143129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>194167</v>
+        <v>194945</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05147201722543407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04354860372707532</v>
+        <v>0.04362245388042557</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05917751310566158</v>
+        <v>0.05941475616195872</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1643590</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1629391</v>
+        <v>1626845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1657226</v>
+        <v>1655796</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.970578094841466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9621934265527552</v>
+        <v>0.9606897603284539</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9786307020669157</v>
+        <v>0.9777865641659136</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1439</v>
@@ -1053,19 +1053,19 @@
         <v>1468612</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1445135</v>
+        <v>1447828</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1487465</v>
+        <v>1488173</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9250093265833391</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9102218397636991</v>
+        <v>0.9119182290458746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9368839805331158</v>
+        <v>0.9373293776688237</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3039</v>
@@ -1074,19 +1074,19 @@
         <v>3112202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3086919</v>
+        <v>3086141</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3138199</v>
+        <v>3137957</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.948527982774566</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.940822486894338</v>
+        <v>0.9405852438380411</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9564513962729242</v>
+        <v>0.9563775461195744</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>21071</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13720</v>
+        <v>13386</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31696</v>
+        <v>32020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03821325313780922</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02488150009126579</v>
+        <v>0.02427589628667381</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05748120910469549</v>
+        <v>0.05807036227200607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1199,19 +1199,19 @@
         <v>29264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20414</v>
+        <v>19952</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41442</v>
+        <v>41625</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0614253856792806</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04285026165571477</v>
+        <v>0.04188002780233273</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08698777565424429</v>
+        <v>0.08737148328238169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -1220,19 +1220,19 @@
         <v>50335</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37738</v>
+        <v>36182</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66519</v>
+        <v>65618</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04897246647858908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03671610162715819</v>
+        <v>0.0352027532549366</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06471886809484789</v>
+        <v>0.06384155780188588</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>530337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>519712</v>
+        <v>519388</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>537688</v>
+        <v>538022</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9617867468621908</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9425187908953047</v>
+        <v>0.941929637727994</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9751184999087352</v>
+        <v>0.9757241037133262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>424</v>
@@ -1270,19 +1270,19 @@
         <v>447148</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>434970</v>
+        <v>434787</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>455998</v>
+        <v>456460</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9385746143207194</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9130122243457557</v>
+        <v>0.9126285167176182</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9571497383442853</v>
+        <v>0.9581199721976672</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>930</v>
@@ -1291,19 +1291,19 @@
         <v>977485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>961301</v>
+        <v>962202</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>990082</v>
+        <v>991638</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9510275335214109</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9352811319051518</v>
+        <v>0.9361584421981141</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9632838983728418</v>
+        <v>0.9647972467450632</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>161025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137855</v>
+        <v>139899</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>187146</v>
+        <v>185988</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04914487340575364</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0420732608442741</v>
+        <v>0.0426970094682789</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05711691939304123</v>
+        <v>0.05676361908476334</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>367</v>
@@ -1416,19 +1416,19 @@
         <v>376807</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>342786</v>
+        <v>342502</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>415323</v>
+        <v>416447</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1115078897795158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1014400154049544</v>
+        <v>0.1013560041919524</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1229058573576801</v>
+        <v>0.1232384754402429</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>530</v>
@@ -1437,19 +1437,19 @@
         <v>537832</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>495514</v>
+        <v>489557</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>588250</v>
+        <v>583759</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08080730570318109</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07444903985757284</v>
+        <v>0.07355411007078812</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08838235495880821</v>
+        <v>0.08770765617422931</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3115518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3089397</v>
+        <v>3090555</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3138688</v>
+        <v>3136644</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9508551265942463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9428830806069589</v>
+        <v>0.943236380915237</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.957926739155726</v>
+        <v>0.9573029905317213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2930</v>
@@ -1487,19 +1487,19 @@
         <v>3002390</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2963874</v>
+        <v>2962750</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3036411</v>
+        <v>3036695</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8884921102204841</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8770941426423199</v>
+        <v>0.8767615245597572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8985599845950456</v>
+        <v>0.8986439958080475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5981</v>
@@ -1508,19 +1508,19 @@
         <v>6117909</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6067491</v>
+        <v>6071982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6160227</v>
+        <v>6166184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9191926942968189</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9116176450411918</v>
+        <v>0.9122923438257707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9255509601424271</v>
+        <v>0.926445889929212</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>108661</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90542</v>
+        <v>89990</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133923</v>
+        <v>130755</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1114876031130975</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09289727503169626</v>
+        <v>0.09233096486586953</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1374067522042292</v>
+        <v>0.134156530689513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>309</v>
@@ -1872,19 +1872,19 @@
         <v>330571</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>301933</v>
+        <v>299202</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>364388</v>
+        <v>361628</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2471008842287435</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2256941559021436</v>
+        <v>0.2236528817721881</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2723789031253275</v>
+        <v>0.2703164042080091</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>406</v>
@@ -1893,19 +1893,19 @@
         <v>439231</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>398006</v>
+        <v>402392</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>478400</v>
+        <v>481215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.189942833901564</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1721150440515075</v>
+        <v>0.174011715869425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.206881088308737</v>
+        <v>0.2080981855281339</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>865982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>840720</v>
+        <v>843888</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>884101</v>
+        <v>884653</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8885123968869025</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8625932477957707</v>
+        <v>0.8658434693104869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9071027249683036</v>
+        <v>0.9076690351341304</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>938</v>
@@ -1943,19 +1943,19 @@
         <v>1007226</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>973409</v>
+        <v>976169</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1035864</v>
+        <v>1038595</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7528991157712565</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7276210968746725</v>
+        <v>0.7296835957919908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7743058440978563</v>
+        <v>0.7763471182278119</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1749</v>
@@ -1964,19 +1964,19 @@
         <v>1873209</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1834040</v>
+        <v>1831225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1914434</v>
+        <v>1910048</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.810057166098436</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.793118911691263</v>
+        <v>0.7919018144718661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8278849559484925</v>
+        <v>0.825988284130575</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>94650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75830</v>
+        <v>77430</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115568</v>
+        <v>116340</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04819349438416091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03861103808888967</v>
+        <v>0.03942569148036344</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0588444161577046</v>
+        <v>0.05923751407761918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>182</v>
@@ -2089,19 +2089,19 @@
         <v>195542</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>168566</v>
+        <v>170216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>224122</v>
+        <v>225673</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.111242499680753</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09589591434487414</v>
+        <v>0.09683451717892877</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.127500976457854</v>
+        <v>0.128383640607076</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>269</v>
@@ -2110,19 +2110,19 @@
         <v>290192</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>259681</v>
+        <v>258149</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>326632</v>
+        <v>326874</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07797180013898285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06977361928382686</v>
+        <v>0.06936205035663419</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08776284857970638</v>
+        <v>0.08782786859192335</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1869307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1848389</v>
+        <v>1847617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1888127</v>
+        <v>1886527</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9518065056158391</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9411555838422954</v>
+        <v>0.9407624859223808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9613889619111103</v>
+        <v>0.9605743085196365</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1453</v>
@@ -2160,19 +2160,19 @@
         <v>1562261</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1533681</v>
+        <v>1532130</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1589237</v>
+        <v>1587587</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8887575003192471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8724990235421459</v>
+        <v>0.871616359392924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9041040856551258</v>
+        <v>0.9031654828210712</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3222</v>
@@ -2181,19 +2181,19 @@
         <v>3431568</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3395128</v>
+        <v>3394886</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3462079</v>
+        <v>3463611</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9220281998610171</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9122371514202937</v>
+        <v>0.9121721314080763</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9302263807161731</v>
+        <v>0.9306379496433657</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>23339</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14267</v>
+        <v>15040</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37543</v>
+        <v>37915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04850453119669258</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02965060942556028</v>
+        <v>0.03125584234542392</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07802242674418598</v>
+        <v>0.07879653740316689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2306,19 +2306,19 @@
         <v>27604</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17367</v>
+        <v>18077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39607</v>
+        <v>40218</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.060188539556216</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03786790595999386</v>
+        <v>0.03941454779594063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08635905546600975</v>
+        <v>0.08769122158884031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -2327,19 +2327,19 @@
         <v>50944</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36498</v>
+        <v>36640</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69260</v>
+        <v>68869</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05420635929280766</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03883563801447025</v>
+        <v>0.0389867489984569</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07369555444025461</v>
+        <v>0.07327990089111996</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>457842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>443638</v>
+        <v>443266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>466914</v>
+        <v>466141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9514954688033074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9219775732558138</v>
+        <v>0.9212034625968332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9703493905744397</v>
+        <v>0.968744157654576</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>387</v>
@@ -2377,19 +2377,19 @@
         <v>431027</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>419024</v>
+        <v>418413</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>441264</v>
+        <v>440554</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9398114604437841</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9136409445339903</v>
+        <v>0.9123087784111598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9621320940400061</v>
+        <v>0.9605854522040593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>808</v>
@@ -2398,19 +2398,19 @@
         <v>888869</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>870553</v>
+        <v>870944</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>903315</v>
+        <v>903173</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9457936407071923</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9263044455597453</v>
+        <v>0.9267200991088799</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9611643619855297</v>
+        <v>0.9610132510015431</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>226650</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>193774</v>
+        <v>196064</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>260246</v>
+        <v>260409</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06627617582560874</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05666260984877042</v>
+        <v>0.05733238129672254</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0761000695174647</v>
+        <v>0.07614786236281992</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>516</v>
@@ -2523,19 +2523,19 @@
         <v>553717</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>507547</v>
+        <v>513317</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>598383</v>
+        <v>600837</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1557910886833867</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.142800919858677</v>
+        <v>0.1444241322026273</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1683579317694795</v>
+        <v>0.1690483371273794</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>717</v>
@@ -2544,19 +2544,19 @@
         <v>780367</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>724996</v>
+        <v>730252</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>836027</v>
+        <v>839591</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1118964885323553</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1039568501603893</v>
+        <v>0.1047104278981834</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.119877550900516</v>
+        <v>0.1203885539416212</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3193132</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3159536</v>
+        <v>3159373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3226008</v>
+        <v>3223718</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9337238241743913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9238999304825354</v>
+        <v>0.92385213763718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9433373901512295</v>
+        <v>0.9426676187032774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2778</v>
@@ -2594,19 +2594,19 @@
         <v>3000513</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2955847</v>
+        <v>2953393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3046683</v>
+        <v>3040913</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8442089113166134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8316420682305206</v>
+        <v>0.8309516628726207</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.857199080141323</v>
+        <v>0.8555758677973727</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5779</v>
@@ -2615,19 +2615,19 @@
         <v>6193645</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6137985</v>
+        <v>6134421</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6249016</v>
+        <v>6243760</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8881035114676448</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8801224490994841</v>
+        <v>0.8796114460583789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8960431498396109</v>
+        <v>0.8952895721018166</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>83233</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66784</v>
+        <v>67811</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101195</v>
+        <v>101956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1103380619371144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08853263184734289</v>
+        <v>0.08989424456023196</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1341488727409074</v>
+        <v>0.1351578608357753</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>228</v>
@@ -2979,19 +2979,19 @@
         <v>254832</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>228574</v>
+        <v>226654</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>284284</v>
+        <v>282178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2561997186558088</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2298016354769756</v>
+        <v>0.2278704670761366</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2858106226540881</v>
+        <v>0.2836928287709439</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>313</v>
@@ -3000,19 +3000,19 @@
         <v>338065</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>303444</v>
+        <v>305780</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>372491</v>
+        <v>373284</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1932895794392799</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1734952625989356</v>
+        <v>0.1748304453584605</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2129731038636787</v>
+        <v>0.213426092732355</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>671114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>653152</v>
+        <v>652391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687563</v>
+        <v>686536</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8896619380628856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8658511272590926</v>
+        <v>0.8648421391642247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9114673681526572</v>
+        <v>0.9101057554397676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -3050,19 +3050,19 @@
         <v>739828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>710376</v>
+        <v>712482</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>766086</v>
+        <v>768006</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7438002813441912</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7141893773459119</v>
+        <v>0.7163071712290561</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7701983645230248</v>
+        <v>0.7721295329238633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1341</v>
@@ -3071,19 +3071,19 @@
         <v>1410942</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1376516</v>
+        <v>1375723</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1445563</v>
+        <v>1443227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8067104205607202</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7870268961363213</v>
+        <v>0.7865739072676451</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8265047374010643</v>
+        <v>0.8251695546415395</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>106991</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87988</v>
+        <v>86906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130272</v>
+        <v>129321</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05152738244241074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04237567015267752</v>
+        <v>0.04185450147057083</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06273987024754439</v>
+        <v>0.06228187593698787</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>227</v>
@@ -3196,19 +3196,19 @@
         <v>247847</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>219025</v>
+        <v>217386</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>277960</v>
+        <v>278701</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1246526205218894</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1101570640306941</v>
+        <v>0.1093327131422466</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1397977530076552</v>
+        <v>0.1401705157703358</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>328</v>
@@ -3217,19 +3217,19 @@
         <v>354837</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>319275</v>
+        <v>317888</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>392300</v>
+        <v>392268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08729766095808601</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07854862111309079</v>
+        <v>0.07820729807577179</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09651430504986301</v>
+        <v>0.09650636978363858</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1969394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1946113</v>
+        <v>1947064</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1988397</v>
+        <v>1989479</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9484726175575893</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9372601297524557</v>
+        <v>0.9377181240630119</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9576243298473226</v>
+        <v>0.9581454985294291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1681</v>
@@ -3267,19 +3267,19 @@
         <v>1740453</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1710340</v>
+        <v>1709599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1769275</v>
+        <v>1770914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8753473794781106</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8602022469923448</v>
+        <v>0.8598294842296642</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8898429359693059</v>
+        <v>0.8906672868577534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3532</v>
@@ -3288,19 +3288,19 @@
         <v>3709848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3672385</v>
+        <v>3672417</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3745410</v>
+        <v>3746797</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.912702339041914</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9034856949501373</v>
+        <v>0.9034936302163614</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9214513788869094</v>
+        <v>0.9217927019242279</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>21421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13743</v>
+        <v>13450</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33896</v>
+        <v>33846</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03916948128133539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02512964286805682</v>
+        <v>0.0245938556080589</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06197920977041544</v>
+        <v>0.06188849534297633</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3413,19 +3413,19 @@
         <v>33248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22941</v>
+        <v>22954</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46394</v>
+        <v>47945</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06054551747315635</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04177671321172098</v>
+        <v>0.04180024501805529</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08448531150631554</v>
+        <v>0.08730990167083655</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -3434,19 +3434,19 @@
         <v>54669</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40864</v>
+        <v>42865</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70272</v>
+        <v>76909</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04987948089124874</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03728351149393368</v>
+        <v>0.03910952785704926</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0641148405059303</v>
+        <v>0.07017044229703728</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>525465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>512990</v>
+        <v>513040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>533143</v>
+        <v>533436</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9608305187186647</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9380207902295846</v>
+        <v>0.9381115046570236</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9748703571319431</v>
+        <v>0.9754061443919411</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>497</v>
@@ -3484,19 +3484,19 @@
         <v>515892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>502746</v>
+        <v>501195</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>526199</v>
+        <v>526186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9394544825268436</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9155146884936843</v>
+        <v>0.9126900983291634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9582232867882785</v>
+        <v>0.9581997549819447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>979</v>
@@ -3505,19 +3505,19 @@
         <v>1041358</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1025755</v>
+        <v>1019118</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1055163</v>
+        <v>1053162</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9501205191087513</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9358851594940697</v>
+        <v>0.9298295577029624</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9627164885060661</v>
+        <v>0.9608904721429505</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>211645</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>187737</v>
+        <v>184967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>243363</v>
+        <v>241817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06266105179417482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0555826851294787</v>
+        <v>0.05476262770103294</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07205177470852484</v>
+        <v>0.07159394968087222</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>484</v>
@@ -3630,19 +3630,19 @@
         <v>535926</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>493835</v>
+        <v>490039</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>581178</v>
+        <v>579208</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.151730236349647</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1398135221284486</v>
+        <v>0.1387388284648542</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1645417115493173</v>
+        <v>0.1639841069301554</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>689</v>
@@ -3651,19 +3651,19 @@
         <v>747571</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>696298</v>
+        <v>697386</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>799534</v>
+        <v>804284</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1081913172795895</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1007708497067577</v>
+        <v>0.1009282659106689</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1157114918291756</v>
+        <v>0.1163989058503582</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3165973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3134255</v>
+        <v>3135801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3189881</v>
+        <v>3192651</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9373389482058252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9279482252914751</v>
+        <v>0.9284060503191278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9444173148705213</v>
+        <v>0.9452373722989671</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2842</v>
@@ -3701,19 +3701,19 @@
         <v>2996174</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2950922</v>
+        <v>2952892</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3038265</v>
+        <v>3042061</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.848269763650353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8354582884506824</v>
+        <v>0.8360158930698446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8601864778715512</v>
+        <v>0.8612611715351458</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5852</v>
@@ -3722,19 +3722,19 @@
         <v>6162147</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6110184</v>
+        <v>6105434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6213420</v>
+        <v>6212332</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8918086827204106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8842885081708243</v>
+        <v>0.8836010941496418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8992291502932422</v>
+        <v>0.8990717340893311</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>100923</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85116</v>
+        <v>86053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118322</v>
+        <v>118424</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.174447135946421</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1471253018130441</v>
+        <v>0.1487448358323218</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.204522912797935</v>
+        <v>0.204698295693097</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>499</v>
@@ -4086,19 +4086,19 @@
         <v>280074</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>257441</v>
+        <v>260789</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>299644</v>
+        <v>302087</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3407068255481253</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3131740526390854</v>
+        <v>0.3172465108495745</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.364513508722165</v>
+        <v>0.3674855401029131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>636</v>
@@ -4107,19 +4107,19 @@
         <v>380997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>354785</v>
+        <v>352513</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>408022</v>
+        <v>408139</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2720302812198153</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.253315494867845</v>
+        <v>0.2516930943629559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2913266250211489</v>
+        <v>0.2914095806552582</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>477606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>460207</v>
+        <v>460105</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>493413</v>
+        <v>492476</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8255528640535791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7954770872020649</v>
+        <v>0.7953017043069027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8528746981869562</v>
+        <v>0.851255164167678</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>928</v>
@@ -4157,19 +4157,19 @@
         <v>541964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>522394</v>
+        <v>519951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>564597</v>
+        <v>561249</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6592931744518746</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6354864912778347</v>
+        <v>0.6325144598970869</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6868259473609145</v>
+        <v>0.6827534891504254</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1482</v>
@@ -4178,19 +4178,19 @@
         <v>1019570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>992545</v>
+        <v>992428</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1045782</v>
+        <v>1048054</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7279697187801848</v>
+        <v>0.7279697187801847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7086733749788512</v>
+        <v>0.7085904193447418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7466845051321556</v>
+        <v>0.7483069056370442</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>163430</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>142405</v>
+        <v>139676</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196529</v>
+        <v>190441</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07326819785280429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06384272523098365</v>
+        <v>0.06261890589679134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08810714791651894</v>
+        <v>0.08537781393007714</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>478</v>
@@ -4303,19 +4303,19 @@
         <v>307161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>280056</v>
+        <v>279504</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>337525</v>
+        <v>336286</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1414581965049203</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1289752153849768</v>
+        <v>0.1287212829192058</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.155441934447995</v>
+        <v>0.1548711819705237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>652</v>
@@ -4324,19 +4324,19 @@
         <v>470591</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>434252</v>
+        <v>435742</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>509484</v>
+        <v>508807</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1069048682176994</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09864972420563659</v>
+        <v>0.09898829684082601</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1157403537497327</v>
+        <v>0.1155864137098445</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2067136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2034037</v>
+        <v>2040125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2088161</v>
+        <v>2090890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9267318021471957</v>
+        <v>0.926731802147196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.911892852083481</v>
+        <v>0.9146221860699227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9361572747690162</v>
+        <v>0.9373810941032086</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2443</v>
@@ -4374,19 +4374,19 @@
         <v>1864231</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1833867</v>
+        <v>1835106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1891336</v>
+        <v>1891888</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8585418034950798</v>
+        <v>0.8585418034950796</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8445580655520049</v>
+        <v>0.8451288180294761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8710247846150232</v>
+        <v>0.8712787170807942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4261</v>
@@ -4395,19 +4395,19 @@
         <v>3931368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3892475</v>
+        <v>3893152</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3967707</v>
+        <v>3966217</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8930951317823005</v>
+        <v>0.8930951317823006</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8842596462502661</v>
+        <v>0.8844135862901557</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9013502757943633</v>
+        <v>0.901011703159174</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>40958</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30265</v>
+        <v>29535</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55852</v>
+        <v>52498</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05755886466573698</v>
+        <v>0.05755886466573696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04253168026273511</v>
+        <v>0.04150644731294895</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07848981023876415</v>
+        <v>0.07377629728837708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -4520,19 +4520,19 @@
         <v>64569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52761</v>
+        <v>52324</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77805</v>
+        <v>77750</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08786314438761184</v>
+        <v>0.08786314438761182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07179504999163504</v>
+        <v>0.07120132388901448</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1058741956641548</v>
+        <v>0.1057993707793265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -4541,19 +4541,19 @@
         <v>105527</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89672</v>
+        <v>88205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124807</v>
+        <v>123281</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07295497675568888</v>
+        <v>0.07295497675568886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06199392554131804</v>
+        <v>0.06097973039115856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08628428672051867</v>
+        <v>0.08522945565427666</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>670629</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>655735</v>
+        <v>659089</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>681322</v>
+        <v>682052</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9424411353342631</v>
+        <v>0.9424411353342628</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9215101897612361</v>
+        <v>0.9262237027116234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9574683197372658</v>
+        <v>0.9584935526870511</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>906</v>
@@ -4591,19 +4591,19 @@
         <v>670308</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>657072</v>
+        <v>657127</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>682116</v>
+        <v>682553</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.912136855612388</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8941258043358452</v>
+        <v>0.8942006292206737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9282049500083649</v>
+        <v>0.9287986761109854</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1540</v>
@@ -4612,19 +4612,19 @@
         <v>1340937</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1321657</v>
+        <v>1323183</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1356792</v>
+        <v>1358259</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9270450232443114</v>
+        <v>0.927045023244311</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9137157132794815</v>
+        <v>0.9147705443457234</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.938006074458682</v>
+        <v>0.9390202696088412</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>305311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>272705</v>
+        <v>272280</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>341081</v>
+        <v>339081</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08671912109702329</v>
+        <v>0.08671912109702332</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07745803542190498</v>
+        <v>0.07733730517345928</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09687922154469095</v>
+        <v>0.09631107401796084</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1075</v>
@@ -4737,19 +4737,19 @@
         <v>651804</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>611517</v>
+        <v>615262</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>690575</v>
+        <v>691387</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1748256531549811</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1640199286024413</v>
+        <v>0.1650245385338871</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1852249392828798</v>
+        <v>0.1854426668731311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1433</v>
@@ -4758,19 +4758,19 @@
         <v>957114</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>910294</v>
+        <v>908265</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1005875</v>
+        <v>1012933</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1320341541262057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1255753160065264</v>
+        <v>0.1252953556795223</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1387606773565253</v>
+        <v>0.1397343310394938</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3215372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3179602</v>
+        <v>3181602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3247978</v>
+        <v>3248403</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9132808789029766</v>
+        <v>0.9132808789029767</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9031207784553091</v>
+        <v>0.9036889259820393</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9225419645780949</v>
+        <v>0.9226626948265407</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4277</v>
@@ -4808,19 +4808,19 @@
         <v>3076503</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3037732</v>
+        <v>3036920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3116790</v>
+        <v>3113045</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8251743468450188</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8147750607171201</v>
+        <v>0.8145573331268687</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8359800713975587</v>
+        <v>0.8349754614661127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7283</v>
@@ -4829,19 +4829,19 @@
         <v>6291876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6243115</v>
+        <v>6236057</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6338696</v>
+        <v>6340725</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8679658458737942</v>
+        <v>0.8679658458737943</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8612393226434746</v>
+        <v>0.8602656689605057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8744246839934735</v>
+        <v>0.8747046443204776</v>
       </c>
     </row>
     <row r="15">
